--- a/static/Single_Video_Reports/141.xlsx
+++ b/static/Single_Video_Reports/141.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,15 +456,11 @@
           <t>heavytruck</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -499,14 +495,12 @@
           <t>bigbus</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -516,10 +510,8 @@
           <t>minibus</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -544,10 +536,8 @@
           <t>sedan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -559,10 +549,8 @@
           <t>threewheeler</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -574,10 +562,8 @@
           <t>utility</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -602,10 +588,8 @@
           <t>minibus</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -619,7 +603,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -647,14 +631,12 @@
           <t>others</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
